--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_22_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_22_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3591026.612489837</v>
+        <v>3582214.576061672</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11423748.89661958</v>
+        <v>11423748.89661957</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315770.065191498</v>
+        <v>1315770.065191496</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7223815.984253489</v>
+        <v>7223815.984253492</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>179.4384479484341</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>30.05161693821722</v>
       </c>
       <c r="X11" t="n">
         <v>322.7559640598765</v>
@@ -1536,19 +1536,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404362</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870203</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1609,7 +1609,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
         <v>307.7079050020904</v>
@@ -1618,13 +1618,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>335.319321731244</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>135.139584019428</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1785,7 +1785,7 @@
         <v>97.77987829572821</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1849,7 +1849,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
@@ -1858,7 +1858,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
         <v>247.6326277687279</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958325</v>
+        <v>20.94922849983766</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>160.2982859408171</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
         <v>322.7559640598765</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2086,19 +2086,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>209.3529512725055</v>
       </c>
       <c r="E20" t="n">
-        <v>9.989652149955131</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
@@ -2146,7 +2146,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2259,7 +2259,7 @@
         <v>97.77987829572821</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
-        <v>318.297755152415</v>
+        <v>251.0267230750019</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>359.9009091231189</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T23" t="n">
-        <v>85.03320013156245</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
         <v>204.0200353403094</v>
@@ -2380,7 +2380,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X23" t="n">
         <v>322.7559640598765</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2496,7 +2496,7 @@
         <v>97.77987829572821</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>110.6216917035658</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>241.6510731180183</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2721,19 +2721,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2769,7 +2769,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2778,7 +2778,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2794,22 +2794,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>37.63103777770814</v>
       </c>
       <c r="W29" t="n">
-        <v>195.8647474770662</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797657</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3006,7 +3006,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3015,7 +3015,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C32" t="n">
         <v>271.3226185338224</v>
@@ -3037,7 +3037,7 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E32" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F32" t="n">
         <v>312.9257725045263</v>
@@ -3046,7 +3046,7 @@
         <v>316.9714524162683</v>
       </c>
       <c r="H32" t="n">
-        <v>200.6574911501353</v>
+        <v>148.3752332772574</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.23748855099068</v>
+        <v>15.23748855099072</v>
       </c>
       <c r="T32" t="n">
         <v>109.967696902435</v>
       </c>
       <c r="U32" t="n">
-        <v>157.0448987217168</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V32" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W32" t="n">
-        <v>203.0084376073488</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X32" t="n">
         <v>275.7808274412839</v>
       </c>
       <c r="Y32" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247634</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.88170694475212</v>
+        <v>88.3420281272948</v>
       </c>
       <c r="C34" t="n">
-        <v>73.29654786144266</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D34" t="n">
-        <v>54.66519978102718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>52.483689409384</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>51.47077478574607</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G34" t="n">
-        <v>79.55397677152361</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H34" t="n">
-        <v>50.80474167713561</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>2.402147172652981</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>95.81875209425672</v>
+        <v>95.81875209425678</v>
       </c>
       <c r="T34" t="n">
-        <v>125.598676038984</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U34" t="n">
         <v>192.2615649684277</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W34" t="n">
-        <v>192.5727250994058</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>124.6343801149096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C35" t="n">
         <v>271.3226185338224</v>
@@ -3274,7 +3274,7 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E35" t="n">
-        <v>250.9353275131899</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F35" t="n">
         <v>312.9257725045263</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>15.23748855099072</v>
       </c>
       <c r="T35" t="n">
         <v>109.967696902435</v>
       </c>
       <c r="U35" t="n">
-        <v>157.0448987217168</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V35" t="n">
-        <v>233.8019852329497</v>
+        <v>181.519727360073</v>
       </c>
       <c r="W35" t="n">
-        <v>255.2906954802278</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X35" t="n">
         <v>275.7808274412839</v>
       </c>
       <c r="Y35" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.88170694475212</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D37" t="n">
-        <v>54.66519978102718</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E37" t="n">
-        <v>52.483689409384</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F37" t="n">
-        <v>51.47077478574607</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>72.07553502184305</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H37" t="n">
-        <v>53.26506285967846</v>
+        <v>58.28318342681618</v>
       </c>
       <c r="I37" t="n">
-        <v>2.402147172652938</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>95.81875209425672</v>
+        <v>95.81875209425678</v>
       </c>
       <c r="T37" t="n">
-        <v>125.598676038984</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>158.1873700866428</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W37" t="n">
-        <v>192.5727250994058</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C38" t="n">
         <v>271.3226185338224</v>
@@ -3511,7 +3511,7 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E38" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F38" t="n">
         <v>312.9257725045263</v>
@@ -3520,7 +3520,7 @@
         <v>316.9714524162683</v>
       </c>
       <c r="H38" t="n">
-        <v>200.6574911501353</v>
+        <v>148.3752332772583</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.23748855099068</v>
+        <v>15.23748855099072</v>
       </c>
       <c r="T38" t="n">
         <v>109.967696902435</v>
       </c>
       <c r="U38" t="n">
-        <v>157.0448987217168</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V38" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W38" t="n">
-        <v>203.0084376073497</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X38" t="n">
         <v>275.7808274412839</v>
       </c>
       <c r="Y38" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.88170694475212</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C40" t="n">
-        <v>73.29654786144266</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D40" t="n">
-        <v>54.66519978102718</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E40" t="n">
-        <v>52.483689409384</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F40" t="n">
-        <v>51.47077478574607</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G40" t="n">
-        <v>72.07553502184305</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>50.80474167713561</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I40" t="n">
-        <v>2.402147172652938</v>
+        <v>9.880588922333391</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>98.27907327679929</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V40" t="n">
-        <v>158.1873700866428</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X40" t="n">
         <v>131.759382151852</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.297755152415</v>
+        <v>279.1717064188908</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>47.13459721319686</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,25 +3900,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3954,7 +3954,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870198</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3979,22 +3979,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>12.93904590899647</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>254.5617842395832</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,25 +4137,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.573812657577</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1768.338774781834</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C11" t="n">
-        <v>1446.825890789496</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D11" t="n">
-        <v>1136.009825130819</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E11" t="n">
-        <v>797.6712054806478</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391136</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5041,19 +5041,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5074,19 +5074,19 @@
         <v>3262.764786084339</v>
       </c>
       <c r="U11" t="n">
-        <v>3081.513828560668</v>
+        <v>3056.683942306249</v>
       </c>
       <c r="V11" t="n">
-        <v>3081.513828560668</v>
+        <v>3056.683942306249</v>
       </c>
       <c r="W11" t="n">
-        <v>2776.194806238627</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X11" t="n">
-        <v>2450.178680925621</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y11" t="n">
-        <v>2107.488981897883</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064583</v>
@@ -5123,13 +5123,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5141,31 +5141,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052949</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254612</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611989</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268791</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.408918177042</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998337</v>
@@ -5202,10 +5202,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5220,13 +5220,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5244,7 +5244,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1696.959858232656</v>
+        <v>1743.508888527415</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1421.996004535077</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>1111.1799388764</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>772.8413192262288</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218343</v>
@@ -5308,22 +5308,22 @@
         <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416635</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="U14" t="n">
-        <v>3104.236671416635</v>
+        <v>3056.68394230625</v>
       </c>
       <c r="V14" t="n">
-        <v>2820.623417021138</v>
+        <v>3056.68394230625</v>
       </c>
       <c r="W14" t="n">
-        <v>2515.304394699097</v>
+        <v>2751.364919984209</v>
       </c>
       <c r="X14" t="n">
-        <v>2378.799764376442</v>
+        <v>2425.348794671202</v>
       </c>
       <c r="Y14" t="n">
-        <v>2036.110065348704</v>
+        <v>2082.659095643464</v>
       </c>
     </row>
     <row r="15">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
@@ -5442,7 +5442,7 @@
         <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5481,7 +5481,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874608</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1650.849925018064</v>
+        <v>1707.656676566317</v>
       </c>
       <c r="C17" t="n">
-        <v>1329.337041025725</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D17" t="n">
-        <v>1018.520975367048</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E17" t="n">
-        <v>680.1823557168772</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F17" t="n">
-        <v>316.6460838753429</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G17" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084339</v>
+        <v>3304.444984740649</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416634</v>
+        <v>3304.444984740649</v>
       </c>
       <c r="U17" t="n">
-        <v>3104.236671416634</v>
+        <v>3304.444984740649</v>
       </c>
       <c r="V17" t="n">
-        <v>2820.623417021137</v>
+        <v>3020.831730345151</v>
       </c>
       <c r="W17" t="n">
-        <v>2658.705956474857</v>
+        <v>2715.51270802311</v>
       </c>
       <c r="X17" t="n">
-        <v>2332.689831161851</v>
+        <v>2389.496582710104</v>
       </c>
       <c r="Y17" t="n">
-        <v>1990.000132134112</v>
+        <v>2046.806883682365</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5670,10 +5670,10 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K19" t="n">
         <v>408.6327023328087</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1690.224680302051</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C20" t="n">
-        <v>1368.711796309712</v>
+        <v>979.854635471874</v>
       </c>
       <c r="D20" t="n">
-        <v>1057.895730651035</v>
+        <v>768.3870079238886</v>
       </c>
       <c r="E20" t="n">
-        <v>1047.805172923808</v>
+        <v>430.0483882737176</v>
       </c>
       <c r="F20" t="n">
-        <v>684.2689010822733</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,10 +5752,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5770,7 +5770,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U20" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>2677.383608767878</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W20" t="n">
-        <v>2372.064586445837</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X20" t="n">
-        <v>2372.064586445837</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y20" t="n">
-        <v>2029.374887418099</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5834,10 +5834,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5913,10 +5913,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C23" t="n">
-        <v>1696.959858232656</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="D23" t="n">
-        <v>1386.143792573978</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E23" t="n">
-        <v>1047.805172923808</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F23" t="n">
-        <v>684.2689010822733</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G23" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T23" t="n">
-        <v>3176.872664739326</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U23" t="n">
-        <v>2970.791820961236</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V23" t="n">
-        <v>2687.178566565739</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W23" t="n">
-        <v>2687.178566565739</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X23" t="n">
-        <v>2361.162441252732</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y23" t="n">
-        <v>2018.472742224994</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
         <v>765.151745215813</v>
@@ -6086,31 +6086,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
         <v>1109.759191501176</v>
@@ -6144,16 +6144,16 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K25" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L25" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M25" t="n">
         <v>1162.360316885667</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2018.472742224994</v>
+        <v>2012.430767830338</v>
       </c>
       <c r="C26" t="n">
-        <v>1696.959858232656</v>
+        <v>1690.917883837999</v>
       </c>
       <c r="D26" t="n">
-        <v>1386.143792573978</v>
+        <v>1380.101818179322</v>
       </c>
       <c r="E26" t="n">
-        <v>1047.805172923808</v>
+        <v>1041.763198529151</v>
       </c>
       <c r="F26" t="n">
-        <v>684.2689010822733</v>
+        <v>678.2269266876169</v>
       </c>
       <c r="G26" t="n">
-        <v>316.646083875343</v>
+        <v>310.6041094806868</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>2798.917649094593</v>
+        <v>3020.286799287131</v>
       </c>
       <c r="X26" t="n">
-        <v>2472.901523781587</v>
+        <v>2694.270673974124</v>
       </c>
       <c r="Y26" t="n">
-        <v>2130.211824753848</v>
+        <v>2351.580974946386</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6323,10 +6323,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
         <v>2564.909189125856</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D28" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E28" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F28" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G28" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H28" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I28" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K28" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L28" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M28" t="n">
         <v>1162.360316885667</v>
@@ -6402,13 +6402,13 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P28" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q28" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R28" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S28" t="n">
         <v>2112.720554588246</v>
@@ -6417,19 +6417,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V28" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.6650816874607</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2018.472742224994</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C29" t="n">
-        <v>1696.959858232655</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D29" t="n">
-        <v>1386.143792573978</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E29" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F29" t="n">
-        <v>684.268901082273</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G29" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218342</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2898.155827638544</v>
+        <v>3119.52497783108</v>
       </c>
       <c r="V29" t="n">
-        <v>2898.155827638544</v>
+        <v>3081.513828560668</v>
       </c>
       <c r="W29" t="n">
-        <v>2700.31264836878</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="X29" t="n">
-        <v>2700.31264836878</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y29" t="n">
-        <v>2357.622949341042</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218342</v>
@@ -6545,10 +6545,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D31" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E31" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F31" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G31" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H31" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K31" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L31" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M31" t="n">
         <v>1162.360316885667</v>
@@ -6642,13 +6642,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q31" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R31" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T31" t="n">
         <v>1938.403572105846</v>
@@ -6666,7 +6666,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1733.774944536554</v>
+        <v>1680.964583048799</v>
       </c>
       <c r="C32" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004534</v>
       </c>
       <c r="D32" t="n">
-        <v>1196.345260781685</v>
+        <v>1143.53489929393</v>
       </c>
       <c r="E32" t="n">
-        <v>905.4562740795873</v>
+        <v>852.6459125918319</v>
       </c>
       <c r="F32" t="n">
-        <v>589.3696351861264</v>
+        <v>536.559273698371</v>
       </c>
       <c r="G32" t="n">
-        <v>269.1964509272696</v>
+        <v>216.3860894395141</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3310.214419032411</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T32" t="n">
-        <v>3199.135937312779</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U32" t="n">
-        <v>3040.504726482762</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V32" t="n">
-        <v>2804.341105035338</v>
+        <v>2804.34110503534</v>
       </c>
       <c r="W32" t="n">
-        <v>2599.282077149127</v>
+        <v>2546.471715661372</v>
       </c>
       <c r="X32" t="n">
-        <v>2320.715584784194</v>
+        <v>2267.905223296439</v>
       </c>
       <c r="Y32" t="n">
-        <v>2025.475518704529</v>
+        <v>1972.665157216774</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6797,34 +6797,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>529.7720666302614</v>
+        <v>617.1173509610745</v>
       </c>
       <c r="C34" t="n">
-        <v>455.7351495985012</v>
+        <v>543.0804339293142</v>
       </c>
       <c r="D34" t="n">
-        <v>400.5177760823121</v>
+        <v>392.9637945169785</v>
       </c>
       <c r="E34" t="n">
-        <v>347.5039483960656</v>
+        <v>245.0507009345853</v>
       </c>
       <c r="F34" t="n">
-        <v>295.5132667943019</v>
+        <v>193.0600193328216</v>
       </c>
       <c r="G34" t="n">
-        <v>215.1557144998336</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>68.93852771769149</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
         <v>1317.747152581905</v>
@@ -6879,31 +6879,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1740.677472568993</v>
+        <v>1830.507929811466</v>
       </c>
       <c r="T34" t="n">
-        <v>1613.810123034666</v>
+        <v>1703.640580277138</v>
       </c>
       <c r="U34" t="n">
-        <v>1419.606522056456</v>
+        <v>1509.436979298928</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.922033850569</v>
+        <v>1349.651756989188</v>
       </c>
       <c r="W34" t="n">
-        <v>970.4041297097554</v>
+        <v>1155.133852848374</v>
       </c>
       <c r="X34" t="n">
-        <v>742.414578811738</v>
+        <v>927.144301950357</v>
       </c>
       <c r="Y34" t="n">
-        <v>616.5212655643545</v>
+        <v>706.3517228068268</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1696.355985625557</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C35" t="n">
-        <v>1422.292734581292</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D35" t="n">
-        <v>1158.926301870688</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E35" t="n">
-        <v>905.4562740795874</v>
+        <v>905.4562740795875</v>
       </c>
       <c r="F35" t="n">
         <v>589.3696351861265</v>
       </c>
       <c r="G35" t="n">
-        <v>269.1964509272696</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6952,37 +6952,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T35" t="n">
-        <v>3214.527339889539</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U35" t="n">
-        <v>3055.896129059522</v>
+        <v>3040.504726482765</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.732507612098</v>
+        <v>2857.151466523095</v>
       </c>
       <c r="W35" t="n">
-        <v>2561.863118238131</v>
+        <v>2599.282077149128</v>
       </c>
       <c r="X35" t="n">
-        <v>2283.296625873198</v>
+        <v>2320.715584784195</v>
       </c>
       <c r="Y35" t="n">
-        <v>1988.056559793532</v>
+        <v>2025.47551870453</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7034,10 +7034,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>524.703257976587</v>
+        <v>624.6713325264084</v>
       </c>
       <c r="C37" t="n">
-        <v>355.7670750486801</v>
+        <v>550.634415494648</v>
       </c>
       <c r="D37" t="n">
-        <v>300.549701532491</v>
+        <v>495.4170419784589</v>
       </c>
       <c r="E37" t="n">
-        <v>247.5358738462446</v>
+        <v>442.4032142922123</v>
       </c>
       <c r="F37" t="n">
-        <v>195.5451922444809</v>
+        <v>295.513266794302</v>
       </c>
       <c r="G37" t="n">
-        <v>122.7416215153465</v>
+        <v>222.7096960651675</v>
       </c>
       <c r="H37" t="n">
-        <v>68.93852771769144</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7116,31 +7116,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1830.507929811465</v>
+        <v>1740.677472568994</v>
       </c>
       <c r="T37" t="n">
-        <v>1703.640580277138</v>
+        <v>1613.810123034667</v>
       </c>
       <c r="U37" t="n">
-        <v>1414.537713402782</v>
+        <v>1324.70725616031</v>
       </c>
       <c r="V37" t="n">
-        <v>1254.752491093041</v>
+        <v>1164.92203385057</v>
       </c>
       <c r="W37" t="n">
-        <v>1060.234586952228</v>
+        <v>970.4041297097557</v>
       </c>
       <c r="X37" t="n">
-        <v>832.2450360542102</v>
+        <v>837.313844707885</v>
       </c>
       <c r="Y37" t="n">
-        <v>611.4524569106801</v>
+        <v>711.4205314605015</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1733.774944536554</v>
+        <v>1680.9645830488</v>
       </c>
       <c r="C38" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004534</v>
       </c>
       <c r="D38" t="n">
-        <v>1196.345260781685</v>
+        <v>1143.53489929393</v>
       </c>
       <c r="E38" t="n">
-        <v>905.4562740795873</v>
+        <v>852.6459125918328</v>
       </c>
       <c r="F38" t="n">
-        <v>589.3696351861264</v>
+        <v>536.559273698372</v>
       </c>
       <c r="G38" t="n">
-        <v>269.1964509272696</v>
+        <v>216.386089439515</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3310.214419032412</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T38" t="n">
-        <v>3199.13593731278</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U38" t="n">
-        <v>3040.504726482763</v>
+        <v>3040.504726482765</v>
       </c>
       <c r="V38" t="n">
-        <v>2804.341105035339</v>
+        <v>2804.341105035341</v>
       </c>
       <c r="W38" t="n">
-        <v>2599.282077149127</v>
+        <v>2546.471715661373</v>
       </c>
       <c r="X38" t="n">
-        <v>2320.715584784194</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y38" t="n">
-        <v>2025.475518704529</v>
+        <v>1972.665157216775</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7271,34 +7271,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>427.3188191687809</v>
+        <v>529.7720666302616</v>
       </c>
       <c r="C40" t="n">
-        <v>353.2819021370207</v>
+        <v>455.7351495985013</v>
       </c>
       <c r="D40" t="n">
-        <v>298.0645286208316</v>
+        <v>400.5177760823122</v>
       </c>
       <c r="E40" t="n">
-        <v>245.0507009345851</v>
+        <v>347.5039483960657</v>
       </c>
       <c r="F40" t="n">
-        <v>193.0600193328214</v>
+        <v>295.5132667943019</v>
       </c>
       <c r="G40" t="n">
-        <v>120.256448603687</v>
+        <v>127.8104301690209</v>
       </c>
       <c r="H40" t="n">
-        <v>68.93852771769141</v>
+        <v>76.49250928302524</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1828.022756899806</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1606.256141469332</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1317.153274594976</v>
+        <v>1229.807990264163</v>
       </c>
       <c r="V40" t="n">
-        <v>1157.368052285236</v>
+        <v>1070.022767954423</v>
       </c>
       <c r="W40" t="n">
-        <v>867.9508822482749</v>
+        <v>875.5048638136089</v>
       </c>
       <c r="X40" t="n">
-        <v>734.8605972464042</v>
+        <v>742.4145788117382</v>
       </c>
       <c r="Y40" t="n">
-        <v>514.068018102874</v>
+        <v>616.5212655643547</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1364.208554989043</v>
+        <v>1728.81751343484</v>
       </c>
       <c r="C41" t="n">
-        <v>1042.695670996705</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D41" t="n">
-        <v>731.8796053380274</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E41" t="n">
-        <v>731.8796053380274</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="F41" t="n">
-        <v>684.268901082273</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G41" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3167.077706941465</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2960.996863163375</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2677.383608767877</v>
+        <v>3041.992567213674</v>
       </c>
       <c r="W41" t="n">
-        <v>2372.064586445837</v>
+        <v>2736.673544891633</v>
       </c>
       <c r="X41" t="n">
-        <v>2046.04846113283</v>
+        <v>2410.657419578627</v>
       </c>
       <c r="Y41" t="n">
-        <v>1703.358762105092</v>
+        <v>2067.967720550889</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,34 +7508,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G43" t="n">
         <v>215.1557144998337</v>
@@ -7566,40 +7566,40 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M43" t="n">
-        <v>1162.360316885666</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N43" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O43" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P43" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q43" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R43" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T43" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U43" t="n">
         <v>1696.750338179563</v>
@@ -7614,7 +7614,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1459.895634131916</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C44" t="n">
-        <v>1446.825890789496</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D44" t="n">
-        <v>1136.009825130819</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E44" t="n">
-        <v>797.6712054806478</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F44" t="n">
-        <v>434.1349336391136</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218339</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T44" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="U44" t="n">
-        <v>3056.683942306248</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="V44" t="n">
-        <v>2773.070687910751</v>
+        <v>3005.631670690821</v>
       </c>
       <c r="W44" t="n">
-        <v>2467.75166558871</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="X44" t="n">
-        <v>2141.735540275703</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y44" t="n">
-        <v>1799.045841247965</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,13 +7742,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F46" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G46" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L46" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M46" t="n">
         <v>1162.360316885667</v>
@@ -7827,31 +7827,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R46" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T46" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U46" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V46" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W46" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X46" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>106.2905608078702</v>
+        <v>106.2905608078706</v>
       </c>
       <c r="K8" t="n">
-        <v>108.0509691342325</v>
+        <v>108.0509691342331</v>
       </c>
       <c r="L8" t="n">
-        <v>96.77227480406944</v>
+        <v>96.77227480407009</v>
       </c>
       <c r="M8" t="n">
-        <v>75.6884709890476</v>
+        <v>75.68847098904834</v>
       </c>
       <c r="N8" t="n">
-        <v>72.25277707563896</v>
+        <v>72.25277707563967</v>
       </c>
       <c r="O8" t="n">
-        <v>81.69620940099517</v>
+        <v>81.69620940099585</v>
       </c>
       <c r="P8" t="n">
-        <v>104.5753204322704</v>
+        <v>104.575320432271</v>
       </c>
       <c r="Q8" t="n">
-        <v>127.1910504951915</v>
+        <v>127.1910504951919</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>82.31385607311356</v>
+        <v>82.31385607311377</v>
       </c>
       <c r="K9" t="n">
-        <v>61.74322338813526</v>
+        <v>61.74322338813562</v>
       </c>
       <c r="L9" t="n">
-        <v>36.23093782110497</v>
+        <v>36.23093782110544</v>
       </c>
       <c r="M9" t="n">
-        <v>22.72740344109526</v>
+        <v>22.72740344109582</v>
       </c>
       <c r="N9" t="n">
-        <v>8.77474339909827</v>
+        <v>8.774743399098853</v>
       </c>
       <c r="O9" t="n">
-        <v>30.47141349934085</v>
+        <v>30.47141349934138</v>
       </c>
       <c r="P9" t="n">
-        <v>43.98434548117412</v>
+        <v>43.98434548117454</v>
       </c>
       <c r="Q9" t="n">
-        <v>79.82580085568077</v>
+        <v>79.82580085568104</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>83.11111536571673</v>
+        <v>83.11111536571693</v>
       </c>
       <c r="L10" t="n">
-        <v>76.14573704571367</v>
+        <v>76.14573704571393</v>
       </c>
       <c r="M10" t="n">
-        <v>76.99380833074369</v>
+        <v>76.99380833074397</v>
       </c>
       <c r="N10" t="n">
-        <v>67.22617280376893</v>
+        <v>67.22617280376922</v>
       </c>
       <c r="O10" t="n">
-        <v>82.6125230896111</v>
+        <v>82.61252308961136</v>
       </c>
       <c r="P10" t="n">
-        <v>89.94380155499211</v>
+        <v>89.94380155499233</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.104893954106956e-12</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>24.58158739187527</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>272.2142151606033</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>24.5815873918749</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>187.6163800404485</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>41.26339666974559</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>141.9675461580033</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>98.35495372958493</v>
       </c>
       <c r="E20" t="n">
-        <v>324.9655813037141</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>67.27103207741308</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>71.90963338946516</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>225.1370133413222</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.981554650709569</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>243.1460840738342</v>
       </c>
       <c r="W29" t="n">
-        <v>106.4010846217542</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>52.28225787287792</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>52.282257872879</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>37.04476932188666</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.23748855099068</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>52.28225787287681</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>52.28225787287707</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>52.28225787287809</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>39.12604873352421</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>312.766311909922</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>305.3587092434185</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>26.21533761195911</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>668632.3771054003</v>
+        <v>668632.3771054007</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>586817.024647653</v>
+        <v>586817.0246476531</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>626078.8438334726</v>
+        <v>626078.8438334727</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>626078.8438334728</v>
+        <v>626078.8438334727</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>626078.8438334727</v>
+        <v>626078.8438334728</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>586817.024647653</v>
+        <v>586817.0246476531</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>819276.3387170383</v>
+      </c>
+      <c r="C2" t="n">
         <v>819276.3387170384</v>
       </c>
-      <c r="C2" t="n">
-        <v>819276.3387170385</v>
-      </c>
       <c r="D2" t="n">
-        <v>819346.4490321832</v>
+        <v>819346.4490321829</v>
       </c>
       <c r="E2" t="n">
-        <v>764531.0098898417</v>
+        <v>764531.0098898431</v>
       </c>
       <c r="F2" t="n">
-        <v>764531.0098898429</v>
+        <v>764531.0098898427</v>
       </c>
       <c r="G2" t="n">
         <v>764531.0098898431</v>
       </c>
       <c r="H2" t="n">
+        <v>764531.0098898428</v>
+      </c>
+      <c r="I2" t="n">
         <v>764531.0098898429</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>764531.0098898431</v>
       </c>
-      <c r="J2" t="n">
-        <v>764531.0098898427</v>
-      </c>
       <c r="K2" t="n">
-        <v>764531.0098898427</v>
+        <v>764531.0098898429</v>
       </c>
       <c r="L2" t="n">
-        <v>816880.1021376024</v>
+        <v>816880.1021376025</v>
       </c>
       <c r="M2" t="n">
         <v>816880.1021376026</v>
       </c>
       <c r="N2" t="n">
-        <v>816880.1021376025</v>
+        <v>816880.1021376026</v>
       </c>
       <c r="O2" t="n">
         <v>764531.0098898426</v>
       </c>
       <c r="P2" t="n">
-        <v>764531.0098898417</v>
+        <v>764531.0098898418</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>187635.7982324573</v>
+        <v>187635.7982324565</v>
       </c>
       <c r="E3" t="n">
-        <v>985326.7963882145</v>
+        <v>985326.7963882153</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487394</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920731</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>389207.3459519937</v>
+        <v>389207.3459519941</v>
       </c>
       <c r="E4" t="n">
-        <v>61265.27723866009</v>
+        <v>61265.27723866006</v>
       </c>
       <c r="F4" t="n">
         <v>61265.27723866009</v>
       </c>
       <c r="G4" t="n">
+        <v>61265.27723866009</v>
+      </c>
+      <c r="H4" t="n">
         <v>61265.27723866008</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>61265.27723866009</v>
-      </c>
-      <c r="I4" t="n">
-        <v>61265.27723866011</v>
       </c>
       <c r="J4" t="n">
         <v>61265.27723866011</v>
       </c>
       <c r="K4" t="n">
-        <v>61265.27723866011</v>
+        <v>61265.27723866009</v>
       </c>
       <c r="L4" t="n">
-        <v>91028.44393036218</v>
+        <v>91028.44393036207</v>
       </c>
       <c r="M4" t="n">
-        <v>91028.44393036216</v>
+        <v>91028.44393036209</v>
       </c>
       <c r="N4" t="n">
-        <v>91028.44393036218</v>
+        <v>91028.44393036207</v>
       </c>
       <c r="O4" t="n">
-        <v>61265.27723866013</v>
+        <v>61265.27723866006</v>
       </c>
       <c r="P4" t="n">
-        <v>61265.27723866014</v>
+        <v>61265.27723866006</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>38403.86521923692</v>
+        <v>38403.8652192369</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178176</v>
@@ -26487,31 +26487,31 @@
         <v>78255.49332178176</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="I5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="J5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="K5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="L5" t="n">
-        <v>82204.64608217019</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="M5" t="n">
         <v>82204.64608217022</v>
       </c>
       <c r="N5" t="n">
-        <v>82204.64608217019</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="O5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="P5" t="n">
-        <v>78255.49332178173</v>
+        <v>78255.49332178176</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322498.0076149286</v>
+        <v>322453.8718362474</v>
       </c>
       <c r="C6" t="n">
-        <v>322498.0076149288</v>
+        <v>322453.8718362475</v>
       </c>
       <c r="D6" t="n">
-        <v>204099.4396284951</v>
+        <v>204057.0566076929</v>
       </c>
       <c r="E6" t="n">
-        <v>-360316.5570588146</v>
+        <v>-361729.326058175</v>
       </c>
       <c r="F6" t="n">
-        <v>625010.2393294011</v>
+        <v>623597.4703300399</v>
       </c>
       <c r="G6" t="n">
-        <v>625010.2393294012</v>
+        <v>623597.4703300402</v>
       </c>
       <c r="H6" t="n">
-        <v>625010.2393294012</v>
+        <v>623597.47033004</v>
       </c>
       <c r="I6" t="n">
-        <v>625010.2393294012</v>
+        <v>623597.4703300401</v>
       </c>
       <c r="J6" t="n">
-        <v>587430.1300345268</v>
+        <v>586017.3610351662</v>
       </c>
       <c r="K6" t="n">
-        <v>625010.2393294008</v>
+        <v>623597.4703300401</v>
       </c>
       <c r="L6" t="n">
-        <v>606066.9028301962</v>
+        <v>605962.8611370291</v>
       </c>
       <c r="M6" t="n">
-        <v>436458.4438329971</v>
+        <v>436354.4021398303</v>
       </c>
       <c r="N6" t="n">
-        <v>643647.0121250701</v>
+        <v>643542.9704319033</v>
       </c>
       <c r="O6" t="n">
-        <v>625010.2393294007</v>
+        <v>623597.4703300399</v>
       </c>
       <c r="P6" t="n">
-        <v>625010.2393293998</v>
+        <v>623597.470330039</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859257</v>
@@ -26709,25 +26709,25 @@
         <v>46.97513661859257</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="M2" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="N2" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>219.0947348273818</v>
+        <v>219.0947348273808</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26916,28 +26916,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>46.97513661859257</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859258</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>219.0947348273818</v>
+        <v>219.0947348273808</v>
       </c>
       <c r="E3" t="n">
-        <v>870.6819657659165</v>
+        <v>870.6819657659175</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859257</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>330.4544847165674</v>
+        <v>330.4544847165675</v>
       </c>
       <c r="I8" t="n">
-        <v>176.5195086078626</v>
+        <v>176.5195086078628</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>94.54164201511743</v>
+        <v>94.54164201511769</v>
       </c>
       <c r="S8" t="n">
-        <v>188.94923031035</v>
+        <v>188.9492303103501</v>
       </c>
       <c r="T8" t="n">
         <v>219.2402226225962</v>
@@ -27952,7 +27952,7 @@
         <v>107.6840611601767</v>
       </c>
       <c r="I9" t="n">
-        <v>73.17122088542502</v>
+        <v>73.17122088542509</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>70.89835239588447</v>
+        <v>70.89835239588461</v>
       </c>
       <c r="S9" t="n">
-        <v>162.9297163680457</v>
+        <v>162.9297163680458</v>
       </c>
       <c r="T9" t="n">
         <v>198.2652186824974</v>
@@ -28031,10 +28031,10 @@
         <v>158.7144733162727</v>
       </c>
       <c r="I10" t="n">
-        <v>143.5690752090783</v>
+        <v>143.5690752090784</v>
       </c>
       <c r="J10" t="n">
-        <v>65.42639728466379</v>
+        <v>65.42639728466392</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>53.07873829275974</v>
+        <v>53.07873829275989</v>
       </c>
       <c r="R10" t="n">
-        <v>159.5287592713296</v>
+        <v>159.5287592713297</v>
       </c>
       <c r="S10" t="n">
         <v>217.1312766162495</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28760,7 +28760,7 @@
         <v>46.97513661859257</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P19" t="n">
         <v>46.97513661859257</v>
@@ -28821,7 +28821,7 @@
         <v>46.97513661859257</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28991,7 +28991,7 @@
         <v>46.97513661859257</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859284</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="N22" t="n">
         <v>46.97513661859257</v>
@@ -29058,7 +29058,7 @@
         <v>46.97513661859257</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29228,13 +29228,13 @@
         <v>46.97513661859257</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="N25" t="n">
         <v>46.97513661859257</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P25" t="n">
         <v>46.97513661859257</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C32" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D32" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E32" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F32" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G32" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H32" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T32" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U32" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V32" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W32" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X32" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y32" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="33">
@@ -29906,28 +29906,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.95027323718517</v>
+        <v>91.4899520546425</v>
       </c>
       <c r="C34" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D34" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G34" t="n">
-        <v>86.47183148750462</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H34" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -29954,28 +29954,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T34" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U34" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W34" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="36">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D37" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E37" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F37" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H37" t="n">
-        <v>91.48995205464232</v>
+        <v>86.4718314875046</v>
       </c>
       <c r="I37" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T37" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W37" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="39">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C40" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D40" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E40" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F40" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G40" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I40" t="n">
-        <v>93.95027323718517</v>
+        <v>86.4718314875047</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30428,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>91.4899520546426</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V40" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X40" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8807828535774136</v>
+        <v>0.8807828535774094</v>
       </c>
       <c r="H8" t="n">
-        <v>9.020317399199689</v>
+        <v>9.020317399199646</v>
       </c>
       <c r="I8" t="n">
-        <v>33.95638096254327</v>
+        <v>33.95638096254311</v>
       </c>
       <c r="J8" t="n">
-        <v>74.75534371881606</v>
+        <v>74.75534371881572</v>
       </c>
       <c r="K8" t="n">
-        <v>112.038881910748</v>
+        <v>112.0388819107475</v>
       </c>
       <c r="L8" t="n">
-        <v>138.9941401659178</v>
+        <v>138.9941401659171</v>
       </c>
       <c r="M8" t="n">
-        <v>154.6577622382251</v>
+        <v>154.6577622382244</v>
       </c>
       <c r="N8" t="n">
-        <v>157.160286520952</v>
+        <v>157.1602865209512</v>
       </c>
       <c r="O8" t="n">
-        <v>148.4020020206916</v>
+        <v>148.4020020206909</v>
       </c>
       <c r="P8" t="n">
-        <v>126.6576753229991</v>
+        <v>126.6576753229985</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.11463937925798</v>
+        <v>95.11463937925754</v>
       </c>
       <c r="R8" t="n">
-        <v>55.32747592603225</v>
+        <v>55.32747592603199</v>
       </c>
       <c r="S8" t="n">
-        <v>20.07083927589533</v>
+        <v>20.07083927589524</v>
       </c>
       <c r="T8" t="n">
-        <v>3.85562694153513</v>
+        <v>3.855626941535112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07046262828619307</v>
+        <v>0.07046262828619274</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4712603730249344</v>
+        <v>0.4712603730249322</v>
       </c>
       <c r="H9" t="n">
-        <v>4.551383076319762</v>
+        <v>4.551383076319741</v>
       </c>
       <c r="I9" t="n">
-        <v>16.22541196599007</v>
+        <v>16.22541196598999</v>
       </c>
       <c r="J9" t="n">
-        <v>44.52377059355313</v>
+        <v>44.52377059355292</v>
       </c>
       <c r="K9" t="n">
-        <v>76.09821558622373</v>
+        <v>76.09821558622338</v>
       </c>
       <c r="L9" t="n">
-        <v>102.3234419587692</v>
+        <v>102.3234419587687</v>
       </c>
       <c r="M9" t="n">
-        <v>119.4066304809231</v>
+        <v>119.4066304809225</v>
       </c>
       <c r="N9" t="n">
-        <v>122.566968684235</v>
+        <v>122.5669686842345</v>
       </c>
       <c r="O9" t="n">
-        <v>112.1248309451036</v>
+        <v>112.1248309451031</v>
       </c>
       <c r="P9" t="n">
-        <v>89.99006193315613</v>
+        <v>89.9900619331557</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.15597323034076</v>
+        <v>60.15597323034048</v>
       </c>
       <c r="R9" t="n">
-        <v>29.25948175675866</v>
+        <v>29.25948175675852</v>
       </c>
       <c r="S9" t="n">
-        <v>8.753454735792088</v>
+        <v>8.753454735792047</v>
       </c>
       <c r="T9" t="n">
-        <v>1.899510012324187</v>
+        <v>1.899510012324178</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03100397190953517</v>
+        <v>0.03100397190953503</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3950888660821638</v>
+        <v>0.395088866082162</v>
       </c>
       <c r="H10" t="n">
-        <v>3.512699191166877</v>
+        <v>3.512699191166861</v>
       </c>
       <c r="I10" t="n">
-        <v>11.88139971817998</v>
+        <v>11.88139971817993</v>
       </c>
       <c r="J10" t="n">
-        <v>27.93278283200898</v>
+        <v>27.93278283200885</v>
       </c>
       <c r="K10" t="n">
-        <v>45.90214280481866</v>
+        <v>45.90214280481845</v>
       </c>
       <c r="L10" t="n">
-        <v>58.73893923552462</v>
+        <v>58.73893923552435</v>
       </c>
       <c r="M10" t="n">
-        <v>61.93197561686137</v>
+        <v>61.93197561686107</v>
       </c>
       <c r="N10" t="n">
-        <v>60.45937166146426</v>
+        <v>60.45937166146398</v>
       </c>
       <c r="O10" t="n">
-        <v>55.84401536223169</v>
+        <v>55.84401536223142</v>
       </c>
       <c r="P10" t="n">
-        <v>47.78420249415551</v>
+        <v>47.78420249415528</v>
       </c>
       <c r="Q10" t="n">
-        <v>33.08330495893465</v>
+        <v>33.08330495893449</v>
       </c>
       <c r="R10" t="n">
-        <v>17.76463210583983</v>
+        <v>17.76463210583975</v>
       </c>
       <c r="S10" t="n">
-        <v>6.885321420722798</v>
+        <v>6.885321420722766</v>
       </c>
       <c r="T10" t="n">
-        <v>1.688106973260154</v>
+        <v>1.688106973260146</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02155030178629987</v>
+        <v>0.02155030178629977</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
         <v>557.281137600381</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -36056,7 +36056,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
         <v>281.932207763703</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36287,16 +36287,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120766</v>
+        <v>394.6085160120762</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3693751564862</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36524,16 +36524,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120762</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37949,7 +37949,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
